--- a/exceldata/optimization/results_with_new_objective9.xlsx
+++ b/exceldata/optimization/results_with_new_objective9.xlsx
@@ -387,77 +387,77 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.0253658466694873</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.08023883987979165</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.07985880192378568</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.07687367197378912</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.02938836033514013</v>
+        <v>1E-05</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.02664645344039901</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.04841863641876071</v>
+        <v>0.06445731516693876</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.01178947732823958</v>
+        <v>0.07091306462497741</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.09190190512149105</v>
+        <v>0.003341633498036417</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.03515391329747014</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.007009638272516066</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.02851275666866538</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.002027378273228919</v>
+        <v>0.1568232584303561</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.02615497570261343</v>
+        <v>0.08224514425803639</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.02052325998691128</v>
+        <v>0.1761609831174472</v>
       </c>
     </row>
   </sheetData>
